--- a/notebooks/OFD1/input/OFD1_OFD1_individuals.xlsx
+++ b/notebooks/OFD1/input/OFD1_OFD1_individuals.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/OFD1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2515E3-997B-2A46-95ED-9552470B90DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F0140D-F090-EB41-B5BD-9F070B3AAAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18020" yWindow="7660" windowWidth="49020" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="3780" windowWidth="35600" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="225">
   <si>
     <t>PMID</t>
   </si>
@@ -142,9 +155,6 @@
     <t>Cleft palate</t>
   </si>
   <si>
-    <t>Depression</t>
-  </si>
-  <si>
     <t>Clinodactyly</t>
   </si>
   <si>
@@ -325,9 +335,6 @@
     <t>HP:0000175</t>
   </si>
   <si>
-    <t>HP:0000716</t>
-  </si>
-  <si>
     <t>HP:0030084</t>
   </si>
   <si>
@@ -515,13 +522,199 @@
   </si>
   <si>
     <t>c.121C&gt;T</t>
+  </si>
+  <si>
+    <t>PMID:11950863</t>
+  </si>
+  <si>
+    <t>Four novel mutations in the OFD1 (Cxorf5) gene in Finnish patients with oral-facial-digital syndrome 1</t>
+  </si>
+  <si>
+    <t>Individual I.3</t>
+  </si>
+  <si>
+    <t>Individual I.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual IV </t>
+  </si>
+  <si>
+    <t>Individual III</t>
+  </si>
+  <si>
+    <t>Individual II.3</t>
+  </si>
+  <si>
+    <t>Individual II.2</t>
+  </si>
+  <si>
+    <t>Individual II.1</t>
+  </si>
+  <si>
+    <t>c.413-10T&gt;G</t>
+  </si>
+  <si>
+    <t>c.1409del</t>
+  </si>
+  <si>
+    <t>c.235G&gt;A</t>
+  </si>
+  <si>
+    <t>c.1888_1889insTA</t>
+  </si>
+  <si>
+    <t>novel splice acceptor site</t>
+  </si>
+  <si>
+    <t>NP_003602.1:p.(Asn470ThrfsTer3)</t>
+  </si>
+  <si>
+    <t>NP_003602.1:p.(Ala79Thr)</t>
+  </si>
+  <si>
+    <t>P1Y6M</t>
+  </si>
+  <si>
+    <t>P23Y</t>
+  </si>
+  <si>
+    <t>P30Y</t>
+  </si>
+  <si>
+    <t>P19Y</t>
+  </si>
+  <si>
+    <t>P25Y</t>
+  </si>
+  <si>
+    <t>P50Y</t>
+  </si>
+  <si>
+    <t>Thin upper lip vermilion</t>
+  </si>
+  <si>
+    <t>HP:0000219</t>
+  </si>
+  <si>
+    <t>Accessory oral frenulum</t>
+  </si>
+  <si>
+    <t>HP:0000191</t>
+  </si>
+  <si>
+    <t>Malar flattening</t>
+  </si>
+  <si>
+    <t>HP:0000272</t>
+  </si>
+  <si>
+    <t>Short 5th finger</t>
+  </si>
+  <si>
+    <t>HP:0009237</t>
+  </si>
+  <si>
+    <t>4-5 finger cutaneous syndactyly</t>
+  </si>
+  <si>
+    <t>HP:0010705</t>
+  </si>
+  <si>
+    <t>Short fourth metatarsal</t>
+  </si>
+  <si>
+    <t>HP:0004689</t>
+  </si>
+  <si>
+    <t>P2Y6M</t>
+  </si>
+  <si>
+    <t>Prominent metopic ridge</t>
+  </si>
+  <si>
+    <t>HP:0005487</t>
+  </si>
+  <si>
+    <t>Median pseudocleft lip</t>
+  </si>
+  <si>
+    <t>HP:0034185</t>
+  </si>
+  <si>
+    <t>Midline notch of upper alveolar ridge</t>
+  </si>
+  <si>
+    <t>HP:0009084</t>
+  </si>
+  <si>
+    <t>PMID:27957444</t>
+  </si>
+  <si>
+    <t>A Novel Mutation in the OFD1 Gene in a Family with Oral-Facial-Digital Syndrome Type 1: A Case Report</t>
+  </si>
+  <si>
+    <t>P9Y</t>
+  </si>
+  <si>
+    <t>Ventricular septal defect</t>
+  </si>
+  <si>
+    <t>HP:0001629</t>
+  </si>
+  <si>
+    <t>Macroglossia</t>
+  </si>
+  <si>
+    <t>HP:0000158</t>
+  </si>
+  <si>
+    <t>Global developmental delay</t>
+  </si>
+  <si>
+    <t>HP:0001263</t>
+  </si>
+  <si>
+    <t>Patient 2 III-III</t>
+  </si>
+  <si>
+    <t>Patient 1 III-VII</t>
+  </si>
+  <si>
+    <t>P4Y</t>
+  </si>
+  <si>
+    <t>Infantile onset</t>
+  </si>
+  <si>
+    <t>c.1965_1966del</t>
+  </si>
+  <si>
+    <t>PMID:32677760</t>
+  </si>
+  <si>
+    <t>Indian child with novel variant in OFD1 gene</t>
+  </si>
+  <si>
+    <t>case report</t>
+  </si>
+  <si>
+    <t>P9M</t>
+  </si>
+  <si>
+    <t>c.1243del</t>
+  </si>
+  <si>
+    <t>NP_003602.1:p.(Ala415ProfsTer6)</t>
+  </si>
+  <si>
+    <t>P6M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,6 +726,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -573,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -581,7 +787,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,15 +1093,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS10"/>
+  <dimension ref="A1:CD19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:82" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,16 +1169,16 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>25</v>
@@ -986,1091 +1196,2221 @@
         <v>39</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AZ1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BX1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BY1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BR1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BZ1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" t="s">
-        <v>68</v>
-      </c>
       <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" t="s">
         <v>74</v>
       </c>
-      <c r="N2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>75</v>
       </c>
-      <c r="P2" t="s">
-        <v>76</v>
-      </c>
       <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" t="s">
         <v>77</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>78</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>79</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>80</v>
       </c>
-      <c r="U2" t="s">
-        <v>81</v>
-      </c>
       <c r="V2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W2" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="X2" t="s">
         <v>84</v>
       </c>
       <c r="Y2" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z2" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>86</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>87</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>88</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG2" t="s">
         <v>89</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AH2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU2" t="s">
         <v>100</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AV2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BP2" t="s">
         <v>106</v>
       </c>
-      <c r="AF2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BC2" t="s">
+      <c r="BQ2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>188</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>190</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>199</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P3" t="s">
         <v>147</v>
       </c>
-      <c r="BD2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>120</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>122</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BQ2" t="s">
+      <c r="Q3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" t="s">
+        <v>131</v>
+      </c>
+      <c r="U3" t="s">
+        <v>130</v>
+      </c>
+      <c r="V3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>125</v>
       </c>
-      <c r="BR2" t="s">
-        <v>131</v>
-      </c>
-      <c r="BS2" t="s">
+      <c r="B4" t="s">
         <v>126</v>
       </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" t="s">
+        <v>131</v>
+      </c>
+      <c r="U4" t="s">
+        <v>131</v>
+      </c>
+      <c r="V4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
         <v>69</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G5" t="s">
         <v>70</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H5" t="s">
         <v>71</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I5" t="s">
         <v>72</v>
       </c>
-      <c r="I3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="J5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>151</v>
+      </c>
+      <c r="M5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P5" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
         <v>162</v>
       </c>
-      <c r="K3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>153</v>
+      </c>
+      <c r="M6" t="s">
         <v>148</v>
       </c>
-      <c r="M3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" t="s">
-        <v>151</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
         <v>149</v>
       </c>
-      <c r="Q3" t="s">
-        <v>77</v>
-      </c>
-      <c r="T3" t="s">
-        <v>133</v>
-      </c>
-      <c r="U3" t="s">
-        <v>132</v>
-      </c>
-      <c r="V3" t="s">
-        <v>132</v>
-      </c>
-      <c r="W3" t="s">
-        <v>77</v>
-      </c>
-      <c r="X3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>77</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>133</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>77</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>133</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>133</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>132</v>
+      <c r="P6" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T6" t="s">
+        <v>131</v>
+      </c>
+      <c r="U6" t="s">
+        <v>130</v>
+      </c>
+      <c r="V6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>130</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
         <v>69</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G7" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H7" t="s">
         <v>71</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I7" t="s">
         <v>72</v>
       </c>
-      <c r="I4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="J7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M7" t="s">
+        <v>148</v>
+      </c>
+      <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>76</v>
+      </c>
+      <c r="T7" t="s">
+        <v>76</v>
+      </c>
+      <c r="U7" t="s">
+        <v>76</v>
+      </c>
+      <c r="V7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>130</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M8" t="s">
+        <v>148</v>
+      </c>
+      <c r="N8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" t="s">
+        <v>149</v>
+      </c>
+      <c r="P8" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" t="s">
+        <v>131</v>
+      </c>
+      <c r="U8" t="s">
+        <v>130</v>
+      </c>
+      <c r="V8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>130</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" t="s">
+        <v>158</v>
+      </c>
+      <c r="M9" t="s">
+        <v>148</v>
+      </c>
+      <c r="N9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" t="s">
+        <v>149</v>
+      </c>
+      <c r="P9" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" t="s">
+        <v>131</v>
+      </c>
+      <c r="U9" t="s">
+        <v>130</v>
+      </c>
+      <c r="V9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>131</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>130</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>131</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>131</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>163</v>
       </c>
-      <c r="K4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M4" t="s">
-        <v>150</v>
-      </c>
-      <c r="N4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" t="s">
-        <v>151</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="B10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" t="s">
+        <v>176</v>
+      </c>
+      <c r="M10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Q4" t="s">
-        <v>77</v>
-      </c>
-      <c r="T4" t="s">
-        <v>133</v>
-      </c>
-      <c r="U4" t="s">
-        <v>133</v>
-      </c>
-      <c r="V4" t="s">
-        <v>133</v>
-      </c>
-      <c r="W4" t="s">
-        <v>133</v>
-      </c>
-      <c r="X4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>133</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>133</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>133</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>133</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>132</v>
+      <c r="P10" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>76</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="W10" s="3"/>
+      <c r="Y10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>130</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CA10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CC10" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
         <v>69</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G11" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H11" t="s">
         <v>71</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I11" t="s">
         <v>72</v>
       </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M5" t="s">
-        <v>150</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>151</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="J11" t="s">
+        <v>172</v>
+      </c>
+      <c r="K11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Q5" t="s">
-        <v>77</v>
-      </c>
-      <c r="T5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V5" t="s">
-        <v>133</v>
-      </c>
-      <c r="W5" t="s">
-        <v>132</v>
-      </c>
-      <c r="X5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>133</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>132</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>133</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>133</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>133</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>132</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>133</v>
+      <c r="P11" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="W11" s="3"/>
+      <c r="Y11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>131</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CA11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CC11" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
         <v>69</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G12" t="s">
         <v>70</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H12" t="s">
         <v>71</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I12" t="s">
         <v>72</v>
       </c>
-      <c r="I6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="J12" t="s">
+        <v>173</v>
+      </c>
+      <c r="K12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>76</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="W12" s="3"/>
+      <c r="Y12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CA12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CC12" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" t="s">
         <v>164</v>
       </c>
-      <c r="K6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M6" t="s">
-        <v>150</v>
-      </c>
-      <c r="N6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" t="s">
-        <v>151</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="C13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" t="s">
+        <v>174</v>
+      </c>
+      <c r="K13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" t="s">
+        <v>178</v>
+      </c>
+      <c r="M13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Q6" t="s">
-        <v>77</v>
-      </c>
-      <c r="T6" t="s">
-        <v>133</v>
-      </c>
-      <c r="U6" t="s">
-        <v>132</v>
-      </c>
-      <c r="V6" t="s">
-        <v>133</v>
-      </c>
-      <c r="W6" t="s">
-        <v>132</v>
-      </c>
-      <c r="X6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>133</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>133</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>133</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>133</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>133</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>133</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>133</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>133</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>132</v>
+      <c r="P13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>76</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="W13" s="3"/>
+      <c r="Y13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BY13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BZ13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CA13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CC13" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
         <v>69</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G14" t="s">
         <v>70</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H14" t="s">
         <v>71</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I14" t="s">
         <v>72</v>
       </c>
-      <c r="I7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M7" t="s">
-        <v>150</v>
-      </c>
-      <c r="N7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="J14" t="s">
+        <v>175</v>
+      </c>
+      <c r="K14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Q7" t="s">
-        <v>77</v>
-      </c>
-      <c r="T7" t="s">
-        <v>77</v>
-      </c>
-      <c r="U7" t="s">
-        <v>77</v>
-      </c>
-      <c r="V7" t="s">
-        <v>133</v>
-      </c>
-      <c r="W7" t="s">
-        <v>132</v>
-      </c>
-      <c r="X7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>133</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>77</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>77</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>133</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>77</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>133</v>
+      <c r="P14" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="Y14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>131</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CA14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC14" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
         <v>69</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G15" t="s">
         <v>70</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H15" t="s">
         <v>71</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I15" t="s">
         <v>72</v>
       </c>
-      <c r="I8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" t="s">
-        <v>158</v>
-      </c>
-      <c r="K8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" t="s">
-        <v>159</v>
-      </c>
-      <c r="M8" t="s">
-        <v>150</v>
-      </c>
-      <c r="N8" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" t="s">
-        <v>151</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="J15" t="s">
+        <v>175</v>
+      </c>
+      <c r="K15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Q8" t="s">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s">
-        <v>133</v>
-      </c>
-      <c r="U8" t="s">
-        <v>132</v>
-      </c>
-      <c r="V8" t="s">
-        <v>133</v>
-      </c>
-      <c r="W8" t="s">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>132</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>132</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>77</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>133</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>133</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>133</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>133</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>77</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>133</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>133</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>133</v>
+      <c r="P15" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15" t="s">
+        <v>130</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="W15" s="3"/>
+      <c r="Y15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>131</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BS15" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BX15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BZ15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CA15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC15" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
         <v>69</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G16" t="s">
         <v>70</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H16" t="s">
         <v>71</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I16" t="s">
         <v>72</v>
       </c>
-      <c r="I9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s">
-        <v>161</v>
-      </c>
-      <c r="K9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" t="s">
-        <v>160</v>
-      </c>
-      <c r="M9" t="s">
-        <v>150</v>
-      </c>
-      <c r="N9" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" t="s">
-        <v>151</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="J16" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Q9" t="s">
-        <v>77</v>
-      </c>
-      <c r="T9" t="s">
-        <v>133</v>
-      </c>
-      <c r="U9" t="s">
-        <v>132</v>
-      </c>
-      <c r="V9" t="s">
-        <v>133</v>
-      </c>
-      <c r="W9" t="s">
-        <v>132</v>
-      </c>
-      <c r="X9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>133</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>133</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>77</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>77</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>133</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>133</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>133</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>133</v>
+      <c r="P16" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>76</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="W16" s="3"/>
+      <c r="Y16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BY16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CA16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CC16" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" t="s">
+        <v>217</v>
+      </c>
+      <c r="K17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" t="s">
+        <v>148</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P17" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>76</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>131</v>
+      </c>
+      <c r="BI17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CA17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" t="s">
+        <v>217</v>
+      </c>
+      <c r="K18" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" t="s">
+        <v>216</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P18" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>76</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>131</v>
+      </c>
+      <c r="BI18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA18" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" t="s">
+        <v>222</v>
+      </c>
+      <c r="K19" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" t="s">
+        <v>223</v>
+      </c>
+      <c r="M19" t="s">
+        <v>216</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P19" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>76</v>
+      </c>
+      <c r="U19" t="s">
+        <v>130</v>
+      </c>
+      <c r="W19" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>130</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
